--- a/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_7d_28_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_3d_28_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_7d_28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_3d_28" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,284 +466,284 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.612054924436879e-11</v>
+        <v>0.0002118137828334897</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.125131775673049e-07</v>
+        <v>0.0002607569844095564</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2368421052631579</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.238573345872051e-06</v>
+        <v>0.0006585448569890218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2692307692307692</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2692307692307692</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.800850176591601e-06</v>
+        <v>0.0006585448569890218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.180457539653418e-05</v>
+        <v>0.0006585448569890218</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.643068955805225e-05</v>
+        <v>0.0007299230560511773</v>
       </c>
       <c r="D7" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.643068955805225e-05</v>
+        <v>0.02166968549686848</v>
       </c>
       <c r="D8" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0001600736092357329</v>
+        <v>0.0299810521501366</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3076923076923077</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0005245213742460005</v>
+        <v>0.04087289077936297</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001662437410186598</v>
+        <v>0.0419899317769807</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1739130434782609</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.001662437410186598</v>
+        <v>0.08090226196092495</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1739130434782609</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.002233428224332268</v>
+        <v>0.0909970583577917</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.003053479254331814</v>
+        <v>0.09871652420025262</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.005013037217594584</v>
+        <v>0.1601246184536598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>0.1875</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007407313942042518</v>
+        <v>0.1684675214341597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -751,222 +751,222 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.007497007542723974</v>
+        <v>0.230184494721892</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1666666666666667</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.007497007542723974</v>
+        <v>0.3864766621364789</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.008756319929940328</v>
+        <v>0.5231931928514991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1578947368421053</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02882497916820506</v>
+        <v>0.5248878464246226</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07843137254901961</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0306067827830174</v>
+        <v>0.6042367022008098</v>
       </c>
       <c r="D21" t="n">
         <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04554593933036104</v>
+        <v>0.6394981449121093</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.07079857511301162</v>
+        <v>0.6716555873847381</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04724409448818898</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04724409448818898</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.07641017860479601</v>
+        <v>0.7053010578199941</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05714285714285714</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1100476768555783</v>
+        <v>0.7053010578199941</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1271817199767221</v>
+        <v>0.7743075352047046</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.0625</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07407407407407407</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1506357552194325</v>
+        <v>0.7945585710068799</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1428571428571428</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1893935248291603</v>
+        <v>0.937729586548495</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1111111111111111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -975,60 +975,60 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.2081116857608423</v>
+        <v>0.9922847547659496</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2264025843234315</v>
+        <v>0.9999560146776839</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09090909090909091</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2617409364108267</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07692307692307693</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1042,16 +1042,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1080,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1118,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1232,16 +1232,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1270,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1327,16 +1327,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1346,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1365,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1422,7 +1422,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nitrogen metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lipopolysaccharide biosynthesis</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sulfolipid Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Histidine metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,7 +1544,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1476,588 +1552,588 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.955994431387081e-19</v>
+        <v>8.007747539996601e-08</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Vitamin B6 metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.503103020732526e-10</v>
+        <v>3.892326907935547e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4074074074074074</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4074074074074074</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.100645700907168e-09</v>
+        <v>0.0002085888009637255</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.701247640202999e-08</v>
+        <v>0.0002762709457252656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2894736842105263</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.607172616640821e-07</v>
+        <v>0.0003012170102627598</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.643891382337254e-07</v>
+        <v>0.002312916328803334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.101530466939948e-06</v>
+        <v>0.01406979531247543</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.342762717007729e-05</v>
+        <v>0.04824375032734036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2692307692307692</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.098043774349268e-05</v>
+        <v>0.04824375032734036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1764705882352941</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.441815958989483e-05</v>
+        <v>0.04824375032734036</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.63938070640479e-05</v>
+        <v>0.05598846896220096</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3846153846153846</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.268366281856187e-05</v>
+        <v>0.09598218092613507</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1102362204724409</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1102362204724409</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001343680469587594</v>
+        <v>0.1529557840026251</v>
       </c>
       <c r="D14" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0002122918154240161</v>
+        <v>0.2328868903715534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2777777777777778</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0006400420355241272</v>
+        <v>0.2367120169190764</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001066673719054892</v>
+        <v>0.2488889725314757</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.006128001629011014</v>
+        <v>0.2488889725314757</v>
       </c>
       <c r="D18" t="n">
         <v>0.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.009994757097844503</v>
+        <v>0.2896082905383034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02010363892821839</v>
+        <v>0.3132003046147218</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2857142857142857</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02270773643618875</v>
+        <v>0.4426467334665701</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1578947368421053</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02623567206319819</v>
+        <v>0.4426467334665701</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.04039981032933267</v>
+        <v>0.489745049939505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05678640585908287</v>
+        <v>0.577157206528538</v>
       </c>
       <c r="D24" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.06451598210750337</v>
+        <v>0.577157206528538</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Folate biosynthesis</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.615229858959722</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E26" t="n">
         <v>15</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Histidine metabolism</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.06570524771007982</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.06570524771007982</v>
+        <v>0.6364583788610771</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1538461538461539</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07505462924792797</v>
+        <v>0.7626448645267021</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1428571428571428</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.09520838074226262</v>
+        <v>0.8223628256048254</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3333333333333333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1536286112838886</v>
+        <v>0.8463678491717408</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1536286112838886</v>
+        <v>0.8851479123531663</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1730238502339763</v>
+        <v>0.900723372352442</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.0625</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08695652173913043</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2065,117 +2141,117 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1958317516500848</v>
+        <v>0.914202489447447</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05714285714285714</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2083059558959733</v>
+        <v>0.940599682630035</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1428571428571428</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.2083059558959733</v>
+        <v>0.9802630052015424</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1428571428571428</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2594783441975415</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1111111111111111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3073687000310511</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09090909090909091</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.536605939459702</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04347826086956522</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2185,16 +2261,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2204,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -2213,7 +2289,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2223,16 +2299,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2242,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2261,12 +2337,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2280,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2299,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2318,16 +2394,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2337,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2356,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2375,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2394,12 +2470,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2413,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2422,7 +2498,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2432,7 +2508,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Riboflavin metabolism</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Intracellular source/sink</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pantothenate and CoA biosynthesis</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
